--- a/downloaded_files/MDPS396_Tutorial-35577.xlsx
+++ b/downloaded_files/MDPS396_Tutorial-35577.xlsx
@@ -84,7 +84,7 @@
     <x:t>فارس صلاح الدين احمد فؤاد حسنين حسن</x:t>
   </x:si>
   <x:si>
-    <x:t>Fares Salaheldin Ahmed Fouad</x:t>
+    <x:t>Faris Salah El-Din Ahmed Fouad Hassanein Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1210072</x:t>
@@ -536,7 +536,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="31.180625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="36.350625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="44.380625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>

--- a/downloaded_files/MDPS396_Tutorial-35577.xlsx
+++ b/downloaded_files/MDPS396_Tutorial-35577.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -94,6 +94,15 @@
   </x:si>
   <x:si>
     <x:t>Mickel Maged Roushdy Tosson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1190529</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد خالد احمد حسين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Khaled Ahmed Hessien</x:t>
   </x:si>
   <x:si>
     <x:t>1200058</x:t>
@@ -227,7 +236,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E10" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E11" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -527,7 +536,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T10"/>
+  <x:dimension ref="A1:T11"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -842,7 +851,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45909.5172366898</x:v>
+        <x:v>45926.7633471065</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -874,7 +883,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6063677083</x:v>
+        <x:v>45909.5172366898</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -891,6 +900,38 @@
       <x:c r="R10" s="2" t="s"/>
       <x:c r="S10" s="2" t="s"/>
       <x:c r="T10" s="2" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:20">
+      <x:c r="A11" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D11" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E11" s="3">
+        <x:v>45907.6063677083</x:v>
+      </x:c>
+      <x:c r="F11" s="2" t="s"/>
+      <x:c r="G11" s="2" t="s"/>
+      <x:c r="H11" s="2" t="s"/>
+      <x:c r="I11" s="2" t="s"/>
+      <x:c r="J11" s="2" t="s"/>
+      <x:c r="K11" s="2" t="s"/>
+      <x:c r="L11" s="2" t="s"/>
+      <x:c r="M11" s="2" t="s"/>
+      <x:c r="N11" s="2" t="s"/>
+      <x:c r="O11" s="2" t="s"/>
+      <x:c r="P11" s="2" t="s"/>
+      <x:c r="Q11" s="2" t="s"/>
+      <x:c r="R11" s="2" t="s"/>
+      <x:c r="S11" s="2" t="s"/>
+      <x:c r="T11" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS396_Tutorial-35577.xlsx
+++ b/downloaded_files/MDPS396_Tutorial-35577.xlsx
@@ -915,7 +915,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6063677083</x:v>
+        <x:v>45927.63393125</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>

--- a/downloaded_files/MDPS396_Tutorial-35577.xlsx
+++ b/downloaded_files/MDPS396_Tutorial-35577.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -112,6 +112,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Tarek Mohamed Soliman Gad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1200305</x:t>
+  </x:si>
+  <x:si>
+    <x:t>هشام هيثم ذكى عبداللطيف على</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hisham Haytham Zaki</x:t>
   </x:si>
   <x:si>
     <x:t>1220088</x:t>
@@ -236,7 +245,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E11" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -536,7 +545,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T11"/>
+  <x:dimension ref="A1:T12"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -915,7 +924,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45927.63393125</x:v>
+        <x:v>45927.7421089931</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -932,6 +941,38 @@
       <x:c r="R11" s="2" t="s"/>
       <x:c r="S11" s="2" t="s"/>
       <x:c r="T11" s="2" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:20">
+      <x:c r="A12" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B12" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D12" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E12" s="3">
+        <x:v>45927.63393125</x:v>
+      </x:c>
+      <x:c r="F12" s="2" t="s"/>
+      <x:c r="G12" s="2" t="s"/>
+      <x:c r="H12" s="2" t="s"/>
+      <x:c r="I12" s="2" t="s"/>
+      <x:c r="J12" s="2" t="s"/>
+      <x:c r="K12" s="2" t="s"/>
+      <x:c r="L12" s="2" t="s"/>
+      <x:c r="M12" s="2" t="s"/>
+      <x:c r="N12" s="2" t="s"/>
+      <x:c r="O12" s="2" t="s"/>
+      <x:c r="P12" s="2" t="s"/>
+      <x:c r="Q12" s="2" t="s"/>
+      <x:c r="R12" s="2" t="s"/>
+      <x:c r="S12" s="2" t="s"/>
+      <x:c r="T12" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS396_Tutorial-35577.xlsx
+++ b/downloaded_files/MDPS396_Tutorial-35577.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -112,6 +112,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Tarek Mohamed Soliman Gad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1200838</x:t>
+  </x:si>
+  <x:si>
+    <x:t>هشام أيمن ابوعجيله على</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hisham Ayman Abo Egila Ali</x:t>
   </x:si>
   <x:si>
     <x:t>1200305</x:t>
@@ -245,7 +254,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -545,7 +554,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T12"/>
+  <x:dimension ref="A1:T13"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -860,7 +869,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45926.7633471065</x:v>
+        <x:v>45928.5988085648</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -924,7 +933,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45927.7421089931</x:v>
+        <x:v>45928.6309937847</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -956,7 +965,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45927.63393125</x:v>
+        <x:v>45927.7421089931</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -973,6 +982,38 @@
       <x:c r="R12" s="2" t="s"/>
       <x:c r="S12" s="2" t="s"/>
       <x:c r="T12" s="2" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:20">
+      <x:c r="A13" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D13" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E13" s="3">
+        <x:v>45928.3948722222</x:v>
+      </x:c>
+      <x:c r="F13" s="2" t="s"/>
+      <x:c r="G13" s="2" t="s"/>
+      <x:c r="H13" s="2" t="s"/>
+      <x:c r="I13" s="2" t="s"/>
+      <x:c r="J13" s="2" t="s"/>
+      <x:c r="K13" s="2" t="s"/>
+      <x:c r="L13" s="2" t="s"/>
+      <x:c r="M13" s="2" t="s"/>
+      <x:c r="N13" s="2" t="s"/>
+      <x:c r="O13" s="2" t="s"/>
+      <x:c r="P13" s="2" t="s"/>
+      <x:c r="Q13" s="2" t="s"/>
+      <x:c r="R13" s="2" t="s"/>
+      <x:c r="S13" s="2" t="s"/>
+      <x:c r="T13" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS396_Tutorial-35577.xlsx
+++ b/downloaded_files/MDPS396_Tutorial-35577.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -130,15 +130,6 @@
   </x:si>
   <x:si>
     <x:t>Hisham Haytham Zaki</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220088</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف حامد محمود يوسف</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Hamed Mahmoud Youssef</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -254,7 +245,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -554,7 +545,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T13"/>
+  <x:dimension ref="A1:T12"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -982,38 +973,6 @@
       <x:c r="R12" s="2" t="s"/>
       <x:c r="S12" s="2" t="s"/>
       <x:c r="T12" s="2" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:20">
-      <x:c r="A13" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B13" s="2" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="C13" s="2" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="D13" s="2" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="E13" s="3">
-        <x:v>45928.3948722222</x:v>
-      </x:c>
-      <x:c r="F13" s="2" t="s"/>
-      <x:c r="G13" s="2" t="s"/>
-      <x:c r="H13" s="2" t="s"/>
-      <x:c r="I13" s="2" t="s"/>
-      <x:c r="J13" s="2" t="s"/>
-      <x:c r="K13" s="2" t="s"/>
-      <x:c r="L13" s="2" t="s"/>
-      <x:c r="M13" s="2" t="s"/>
-      <x:c r="N13" s="2" t="s"/>
-      <x:c r="O13" s="2" t="s"/>
-      <x:c r="P13" s="2" t="s"/>
-      <x:c r="Q13" s="2" t="s"/>
-      <x:c r="R13" s="2" t="s"/>
-      <x:c r="S13" s="2" t="s"/>
-      <x:c r="T13" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS396_Tutorial-35577.xlsx
+++ b/downloaded_files/MDPS396_Tutorial-35577.xlsx
@@ -66,7 +66,7 @@
     <x:t>عاليه خالد محمد الشبراوى</x:t>
   </x:si>
   <x:si>
-    <x:t>Alia Khaled</x:t>
+    <x:t>Aliyah Khaled Mohamed AlShobrawi</x:t>
   </x:si>
   <x:si>
     <x:t>1200211</x:t>

--- a/downloaded_files/MDPS396_Tutorial-35577.xlsx
+++ b/downloaded_files/MDPS396_Tutorial-35577.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -58,15 +58,6 @@
   </x:si>
   <x:si>
     <x:t>Shehab Ashraf Taha Ghalab</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4250219</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عاليه خالد محمد الشبراوى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Aliyah Khaled Mohamed AlShobrawi</x:t>
   </x:si>
   <x:si>
     <x:t>1200211</x:t>
@@ -245,7 +236,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E11" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -545,7 +536,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T12"/>
+  <x:dimension ref="A1:T11"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -732,7 +723,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45917.5207644676</x:v>
+        <x:v>45909.4368392708</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -764,7 +755,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45909.4368392708</x:v>
+        <x:v>45906.4313854514</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -796,7 +787,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.4313854514</x:v>
+        <x:v>45906.6660905903</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -828,7 +819,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6660905903</x:v>
+        <x:v>45928.5988085648</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -860,7 +851,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45928.5988085648</x:v>
+        <x:v>45909.5172366898</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -892,7 +883,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.5172366898</x:v>
+        <x:v>45928.6309937847</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -924,7 +915,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45928.6309937847</x:v>
+        <x:v>45927.7421089931</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -941,38 +932,6 @@
       <x:c r="R11" s="2" t="s"/>
       <x:c r="S11" s="2" t="s"/>
       <x:c r="T11" s="2" t="s"/>
-    </x:row>
-    <x:row r="12" spans="1:20">
-      <x:c r="A12" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B12" s="2" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C12" s="2" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="D12" s="2" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="E12" s="3">
-        <x:v>45927.7421089931</x:v>
-      </x:c>
-      <x:c r="F12" s="2" t="s"/>
-      <x:c r="G12" s="2" t="s"/>
-      <x:c r="H12" s="2" t="s"/>
-      <x:c r="I12" s="2" t="s"/>
-      <x:c r="J12" s="2" t="s"/>
-      <x:c r="K12" s="2" t="s"/>
-      <x:c r="L12" s="2" t="s"/>
-      <x:c r="M12" s="2" t="s"/>
-      <x:c r="N12" s="2" t="s"/>
-      <x:c r="O12" s="2" t="s"/>
-      <x:c r="P12" s="2" t="s"/>
-      <x:c r="Q12" s="2" t="s"/>
-      <x:c r="R12" s="2" t="s"/>
-      <x:c r="S12" s="2" t="s"/>
-      <x:c r="T12" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS396_Tutorial-35577.xlsx
+++ b/downloaded_files/MDPS396_Tutorial-35577.xlsx
@@ -75,7 +75,7 @@
     <x:t>فارس صلاح الدين احمد فؤاد حسنين حسن</x:t>
   </x:si>
   <x:si>
-    <x:t>Faris Salah El-Din Ahmed Fouad Hassanein Hassan</x:t>
+    <x:t>Fares Salah El-Din Ahmed Fouad Hassanein Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1210072</x:t>
@@ -545,7 +545,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="31.180625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="44.380625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="44.940625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
